--- a/1 - A processar/1 - Enderecos_Colaboradores.xlsx
+++ b/1 - A processar/1 - Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\1 - A processar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\1 - A processar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F43AA8-9DC3-4A6D-90DF-6FB51BAB7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45871AB-5285-43AA-AB1A-BC44485FB600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16380" yWindow="1500" windowWidth="11220" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -2530,23 +2530,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>219</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>221</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>222</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>223</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>224</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>225</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>227</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>231</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>232</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>233</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>234</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>235</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>238</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>239</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>242</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>243</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>244</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>245</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>246</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>247</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>248</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>249</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>250</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>251</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>252</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>253</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>254</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>257</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>258</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>259</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>260</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>261</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>263</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>264</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>265</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>266</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>267</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>268</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>269</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>270</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>271</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>272</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>273</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>274</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>275</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>276</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>277</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>278</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>279</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>280</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>281</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>282</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>283</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>284</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>285</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>286</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>287</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>288</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>289</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>290</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>291</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>292</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>293</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>294</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>295</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>296</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>297</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>298</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>299</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>300</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>301</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>302</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>303</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>304</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>305</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>306</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>307</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>308</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>309</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>310</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>311</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>312</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>313</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>314</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>315</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>316</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>317</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>318</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>319</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>320</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>322</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>323</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>324</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>325</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>326</v>
       </c>
@@ -5072,16 +5072,16 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="7.33203125" customWidth="1"/>
+    <col min="2" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="96.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>222</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>234</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>241</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>243</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>245</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>246</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>248</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>250</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>255</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>257</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>263</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>265</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>267</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>268</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>270</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>271</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>276</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>279</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>280</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>283</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>284</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>287</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>288</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>290</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>291</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>292</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>293</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>294</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>296</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>297</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>298</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>299</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>300</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>301</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>302</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>303</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>304</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>305</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>306</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>307</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>308</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>309</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>310</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>311</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>312</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>313</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>314</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>318</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>319</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>320</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>321</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>322</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>323</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>324</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -8578,33 +8578,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211FB25E-C5BD-423A-AD39-B470EDAB868F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -8622,7 +8622,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/1 - A processar/1 - Enderecos_Colaboradores.xlsx
+++ b/1 - A processar/1 - Enderecos_Colaboradores.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\1 - A processar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\1 - A processar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3FEE4B-F60F-4523-9EC0-4B5ED721BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54FF91-E21F-4875-BDBA-98442C85C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="4170" windowWidth="11220" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="6" r:id="rId2"/>
     <sheet name="Endereços_concatenados" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabela_turno" sheetId="3" r:id="rId4"/>
+    <sheet name="frfr" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enderecos_Colaboradores!#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="642">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -1038,30 +1038,327 @@
     <t>T4</t>
   </si>
   <si>
+    <t>COLABORADOR COMPLETO</t>
+  </si>
+  <si>
+    <t>ENDERECO COM BAIRRO</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>BAIRRO E MUNICIPIO</t>
+  </si>
+  <si>
     <t>CARLOS JOSE DE PAULO - AV. RIO NEGRO, 683, DOM BOSCO, 00000-000, BETIM, MG, T1</t>
   </si>
   <si>
     <t>AV. RIO NEGRO, 683, DOM BOSCO, 00000-000, BETIM, MG</t>
   </si>
   <si>
-    <t>COLABORADOR COMPLETO</t>
-  </si>
-  <si>
-    <t>ENDERECO COM BAIRRO</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>BAIRRO E MUNICIPIO</t>
-  </si>
-  <si>
     <t>DOM BOSCO, 00000-000, BETIM, MG</t>
   </si>
   <si>
+    <t>DENER MOREIRA BARBOSA - AV. JUIZ MARCO TULIO ISAAC, 9285, NOVA BADEN, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>AV. JUIZ MARCO TULIO ISAAC, 9285, NOVA BADEN, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
     <t>NOVA BADEN, 00000-000, BETIM, MG</t>
   </si>
   <si>
+    <t>WALLACE ADRIANO COSTA - RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>WELINTON COSTA - RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>DANIEL BRITO ALVES BATISTA - RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
+  </si>
+  <si>
+    <t>NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
+  </si>
+  <si>
+    <t>JEFFERSON RICARDO FERREIRA - RUA FRANCISCO SANTOS, 11, FLORESTA, 00000-000, MATOZINHOS, MG, T3</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO SANTOS, 11, FLORESTA, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>FLORESTA, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>LYER SIRONS B CORRÊA - RUA CARIJOS, 39, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
+  </si>
+  <si>
+    <t>RUA CARIJOS, 39, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO COELHO SILVA - RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO PATROCINIO DE JESUS - RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>RENATO JULIO SOARES - RUA EMBOABAS,  160, LARANJEIRAS, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA EMBOABAS,  160, LARANJEIRAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>LARANJEIRAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>VANDERLEI SANTANA MENDES - RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>PETROVALE, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>WALISSON AFONSO CARNEIRO - RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>ANDERSON DE ARAUJO MELO - R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>ANDERSON LUIZ - BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CABANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>DIEGO VINICIUS DA ROCHA CARNEIRO - RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>FRANCISCO PAULO XAVIER - RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JACKSON ANTONIO DA SILVA - RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JOAQUIM DOS SANTOS GOMES - RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JULIANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>LEANDRO VITOR - R. MARILENE FERREIRA DOS SANTOS, 87, JARDIM DOS COMERCIARIOS, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>R. MARILENE FERREIRA DOS SANTOS, 87, JARDIM DOS COMERCIARIOS, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JARDIM DOS COMERCIARIOS, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>LEONARDO DE LIMA - RUA IGUAÇU, 385, CONCORDIA, CONCORDIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA IGUAÇU, 385, CONCORDIA, CONCORDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CONCORDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>LUCAS FERREIRA DA SILVA - RUA OTILIA CANDIDA NASCIMENTO, 204, SANTA MONICA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA OTILIA CANDIDA NASCIMENTO, 204, SANTA MONICA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>SANTA MONICA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>LUCINEI GOMES DA LUZ - R. IMPÉRIO, 674, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>R. IMPÉRIO, 674, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>PAULO DE OLIVEIRA MAIA - RUA JOAO RODRIGUES GONÇALVES, 93, VALE JATOBÁ, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA JOAO RODRIGUES GONÇALVES, 93, VALE JATOBÁ, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>VALE JATOBÁ, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>ROBERTO DE SOUZA MARTINS - RUA JOAO PINHEIRO, 122, BEIJA FLOR, BEIJA FLOR, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA JOAO PINHEIRO, 122, BEIJA FLOR, BEIJA FLOR, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>BEIJA FLOR, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>WALTER RIBEIRO DOS SANTOS - RUA PLATÃO, 137, NAZARÉ, NAZARÉ, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA PLATÃO, 137, NAZARÉ, NAZARÉ, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>NAZARÉ, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>WELSON SILVA PECANHA - RUA PAULO BRANDÃO,  350, SANTA EFIGÊNIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA PAULO BRANDÃO,  350, SANTA EFIGÊNIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>SANTA EFIGÊNIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>WILLIAM GLAYSON RODRIGUES - AVELINO GIAROLA  705; CÉU AZUL, CÉU AZUL, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>AVELINO GIAROLA  705; CÉU AZUL, CÉU AZUL, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CÉU AZUL, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>EVANDRO REIS DA CUNHA - RUA ELIAS SALOMÉ,  11, FERNÃO DIAS, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ELIAS SALOMÉ,  11, FERNÃO DIAS, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>FERNÃO DIAS, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394, BELA VISTA, 00000-000, CAETÉ, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA NILO COELHO JACOME, 394, BELA VISTA, 00000-000, CAETÉ, MG</t>
+  </si>
+  <si>
+    <t>BELA VISTA, 00000-000, CAETÉ, MG</t>
+  </si>
+  <si>
+    <t>ABRAAO CONCEICAO SILVA - R. RIO COMPRIDO, 316, JARDIM CALIFORNIA, 00000-000, CONTAGEM, MG, T1</t>
+  </si>
+  <si>
+    <t>R. RIO COMPRIDO, 316, JARDIM CALIFORNIA, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>JARDIM CALIFORNIA, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>FABIO SOARES - RUA ANTONIO BARBOSA DE OLIVEIRA FILHO, 95, EUROPA, 00000-000, CONTAGEM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO BARBOSA DE OLIVEIRA FILHO, 95, EUROPA, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>EUROPA, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>LAERTE DE OLIVEIRA RUELA JUNIOR - RUA QUATRO, 272, TROPICAL, 00000-000, CONTAGEM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA QUATRO, 272, TROPICAL, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>TROPICAL, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>MARCIO MARINHO DA SILVA - RUA MONSENHOR MESIAS, 921, FLAMENGO, 00000-000, CONTAGEM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA MONSENHOR MESIAS, 921, FLAMENGO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>FLAMENGO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
     <t>ODAIR ALVES GONÇALVES - RUA BECO MACHADO DE ASSIS,  78, PARQUE SÃO JOÃO, 00000-000, CONTAGEM, MG, T2</t>
   </si>
   <si>
@@ -1071,16 +1368,214 @@
     <t>PARQUE SÃO JOÃO, 00000-000, CONTAGEM, MG</t>
   </si>
   <si>
+    <t>ODIVAN RAMOS PEDRO - RUA SÃO DIMAS, 197, INDUSTRIAL, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA SÃO DIMAS, 197, INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
     <t>INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
   </si>
   <si>
-    <t>LYER SIRONS B CORRÊA - RUA CARIJOS, 39, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
-  </si>
-  <si>
-    <t>RUA CARIJOS, 39, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
-  </si>
-  <si>
-    <t>SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+    <t>RAFAEL DINIZ COELHO - RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>SERGIO ALVES - RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>ROSENEY PORFIRIO DA SILVA - RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>VALDEVINO GOMES DA SILVA - RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>JOSCK JUAN SANTOS NASCIMENTO - RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
+  </si>
+  <si>
+    <t>BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
+  </si>
+  <si>
+    <t>ANDRE VINICIUS SOARES - AV. SÃO SEBASTIÃO, 1133, CAMPINHO, 00000-000, LAGOA SANTA, MG, T2</t>
+  </si>
+  <si>
+    <t>AV. SÃO SEBASTIÃO, 1133, CAMPINHO, 00000-000, LAGOA SANTA, MG</t>
+  </si>
+  <si>
+    <t>CAMPINHO, 00000-000, LAGOA SANTA, MG</t>
+  </si>
+  <si>
+    <t>DECIO EVANGELISTA RODRIGUES - RUA FELÍCIANO CASTILHO, 25, CONJUNTO HABITACIONAL OUVIDIO GUERRA, 00000-000, LAGOA SANTA, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA FELÍCIANO CASTILHO, 25, CONJUNTO HABITACIONAL OUVIDIO GUERRA, 00000-000, LAGOA SANTA, MG</t>
+  </si>
+  <si>
+    <t>CONJUNTO HABITACIONAL OUVIDIO GUERRA, 00000-000, LAGOA SANTA, MG</t>
+  </si>
+  <si>
+    <t>AFONSO ELZEPER MOREIRA LEITE - R. FLORIANÓPOLIS, 275, BOM JESUS, 00000-000, MATOZINHOS, MG, T2</t>
+  </si>
+  <si>
+    <t>R. FLORIANÓPOLIS, 275, BOM JESUS, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>BOM JESUS, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>ALDAIR ANTONIO DE LIMA - RUA JOSÉ ANTÔNIO DE JESUS, 95, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ ANTÔNIO DE JESUS, 95, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>ANSELMO DA SILVA FERREIRA - R. TRÊS MARIAS, 76, SÃO CRISTOVAO, 00000-000, MATOZINHOS, MG, T2</t>
+  </si>
+  <si>
+    <t>R. TRÊS MARIAS, 76, SÃO CRISTOVAO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>SÃO CRISTOVAO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>BRUNO GUILHERME CARVALHO DE OLIVEIRA MARTINS - R. BOLÍVIA, 321, BOM JESUS, 00000-000, MATOZINHOS, MG, T2</t>
+  </si>
+  <si>
+    <t>R. BOLÍVIA, 321, BOM JESUS, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>DIEGO ELIAS PEREIRA - RUA FLORIANOPOLIS,  504, BOM JESUS, 00000-000, MATOZINHOS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA FLORIANOPOLIS,  504, BOM JESUS, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>WILLIAN MACHADO NETO - RUA ANTÔNIO INÁCIO  104, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO INÁCIO  104, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
+  </si>
+  <si>
+    <t>DOUGLAS LUCIO RAMOS - RUA MARIA DA CONCEIÇÃO FERNANDES, 133, LAGOA SANTO ANTONIO, 00000-000, PEDRO LEOPOLDO, MG, T3</t>
+  </si>
+  <si>
+    <t>RUA MARIA DA CONCEIÇÃO FERNANDES, 133, LAGOA SANTO ANTONIO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>LAGOA SANTO ANTONIO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>FELIPE VICTOR C AMERICO - RUA FARMACEUTICO JOSÉ MARTINS, 285, FELIPE CLAUDIO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA FARMACEUTICO JOSÉ MARTINS, 285, FELIPE CLAUDIO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>FELIPE CLAUDIO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>FLAVIO DA SILVA FERNANDES - RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPEZ - R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>HUGO LEONARDO SILVA - RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MARCIO RODRIGUES GONCALVES - RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MARCIO VIEIRA MACENA - RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
   </si>
   <si>
     <t>MARCOS HENRIQUE DUARTE COSTA - RUA ELIAS MARQUES, 433, TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
@@ -1092,9 +1587,369 @@
     <t>TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG</t>
   </si>
   <si>
+    <t>RAFAEL WASHINGTON VIEIRA - RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
     <t>FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
   </si>
   <si>
+    <t>ROGER LUCAS DE FREITAS SANTOS - RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TIAGO GOMES - RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
+  </si>
+  <si>
+    <t>FABRICIO AUGUSTO CARDOZO - RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
+  </si>
+  <si>
+    <t>PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
+  </si>
+  <si>
+    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>ADRIANO RODRIGUES DA SILVA - R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>ANTONIO LUIZ DA SILVA - AV. RODRIGUES ALVES, 322, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>AV. RODRIGUES ALVES, 322, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO FRANCISCO - R. PRES. JOSÉ FELÍCIANO, 30A, QUARENTA E DOIS, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>R. PRES. JOSÉ FELÍCIANO, 30A, QUARENTA E DOIS, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>QUARENTA E DOIS, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>DENIS FERNANDO MARCO - RUA PARAGUAI 100, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA PARAGUAI 100, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>DIRCEU CLEBER BORGES - RUA AUTO DO TANQUE, 805, NOSSA SENHORA DO CARMO, 00000-000, Santa Luzia, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA AUTO DO TANQUE, 805, NOSSA SENHORA DO CARMO, 00000-000, Santa Luzia, MG</t>
+  </si>
+  <si>
+    <t>NOSSA SENHORA DO CARMO, 00000-000, Santa Luzia, MG</t>
+  </si>
+  <si>
+    <t>EDVALDO MACIEL JARDIM - RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>FLAVIANO ALVES MUNIZ - TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>BONANZA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPES DE ALMEIDA - RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>HUDSON DIAS RAMOS - AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>PALMITAL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>JOSÉ LUCAS DE JESUS - RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>KLEBER DE AVILA TORRES - RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>MARCELO GUILHERME - RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>PAULO AFONSO FONSECA - RUA MANAUS, 39, PADRE MIGUEL, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MANAUS, 39, PADRE MIGUEL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>PADRE MIGUEL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>RICARDO ANTONIO SIQUEIRA - RUA DINAMARCA, 137, BARONESA, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA DINAMARCA, 137, BARONESA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>BARONESA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460, PALMITAL B, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460, PALMITAL B, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>PALMITAL B, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>THIAGO GOMES AVELINO - RUA ADELINO DE ANDRADE, 149, ADEODATO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ADELINO DE ANDRADE, 149, ADEODATO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>ADEODATO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>VAGNER DE MELO - RUA JABOTICATUBAS,  191, RIO DAS VELHAS SANTA, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JABOTICATUBAS,  191, RIO DAS VELHAS SANTA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>RIO DAS VELHAS SANTA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>WARLEN BARBOSA SANTOS - RUA CANADA, 660, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA CANADA, 660, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES,  693, ICAL, 00000-000, SÃO JOSÉ DA LAPA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693, ICAL, 00000-000, SÃO JOSÉ DA LAPA, MG</t>
+  </si>
+  <si>
+    <t>ICAL, 00000-000, SÃO JOSÉ DA LAPA, MG</t>
+  </si>
+  <si>
+    <t>MARCO TULIO BATISTA DOS ANJOS - AV. NICOLAU ELIAS SIMÃO, 916, DOM PEDRO I, 00000-000, SÃO JOSÉ DA LAPA, MG, T4</t>
+  </si>
+  <si>
+    <t>AV. NICOLAU ELIAS SIMÃO, 916, DOM PEDRO I, 00000-000, SÃO JOSÉ DA LAPA, MG</t>
+  </si>
+  <si>
+    <t>DOM PEDRO I, 00000-000, SÃO JOSÉ DA LAPA, MG</t>
+  </si>
+  <si>
+    <t>ADAIR GOMES DOS SANTOS - R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG, T4</t>
+  </si>
+  <si>
+    <t>R. CEARÁ, 704, SERRA AZUL, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>SERRA AZUL, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE CAMPOS SOUZA - RUA S, 256, CAIEIRAS, 00000-000, VESPASIANO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA S, 256, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO DA SILVA - AV. PRINCIPAL,  1100, SERRA DOURADA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>AV. PRINCIPAL,  1100, SERRA DOURADA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>SERRA DOURADA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA JOÃO TEIXEIRA, 40, JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>NAZIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>EDUARDO HENRIQUE DOS SANTOS MORAIS - RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FLANKLIN SILVA BARROS - RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>GILBERTO SANTOS DA SILVA - RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>HUGO AUGUSTO DOS SANTOS - RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>ITALO MATHEUS B. - RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JASSON FERREIRA CAMPOS - RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JOAO VITOR TAVORA SILVA - RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JOSE RAMON ISERNIA RODRIGUEZ - RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>LEONARDO BATISTA - R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>LEONARDO ALVES - AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO VIEIRA - RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>PAULO HENRIQUE RODRIGUES FERREIRA - AV. CARLOS MURTA FILHO, 776, GAVEA 2, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>AV. CARLOS MURTA FILHO, 776, GAVEA 2, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>GAVEA 2, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>SEBASTIAO NERES PINTO JUNIOR - ALAMEDA SO REI, 125, DOS IPÊS, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>ALAMEDA SO REI, 125, DOS IPÊS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>DOS IPÊS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
     <t>SILVIO HUBINER DA SILVA - RUA BAENPEDI, 380, SANTA CLARA, 00000-000, VESPASIANO, MG, T5</t>
   </si>
   <si>
@@ -1104,52 +1959,10 @@
     <t>SANTA CLARA, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
-    <t>CELVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>RUA INCONSTANTE DEMAIS, 15</t>
-  </si>
-  <si>
-    <t>RUA DEMASIADAMENTE IDIOTA, 23</t>
-  </si>
-  <si>
-    <t>RUA RIDICULAMENTE RIDICULO, 444</t>
-  </si>
-  <si>
-    <t>RUA BABAQUICES A PARTE, 444</t>
-  </si>
-  <si>
-    <t>AV. CORNO MANSO DE BH, 444</t>
-  </si>
-  <si>
-    <t>DENER MOREIRA BARBOSA - RUA INCONSTANTE DEMAIS, 15, NOVA BADEN, 00000-000, BETIM, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA INCONSTANTE DEMAIS, 15, NOVA BADEN, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>ODIVAN RAMOS PEDRO - RUA DEMASIADAMENTE IDIOTA, 23, INDUSTRIAL, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA DEMASIADAMENTE IDIOTA, 23, INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>WILLIAN MACHADO NETO - RUA RIDICULAMENTE RIDICULO, 444, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG, T3</t>
-  </si>
-  <si>
-    <t>RUA RIDICULAMENTE RIDICULO, 444, SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
-  </si>
-  <si>
-    <t>RAFAEL WASHINGTON VIEIRA - RUA BABAQUICES A PARTE, 444, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA BABAQUICES A PARTE, 444, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>VANDERSON DOS SANTOS ANDRE - AV. CORNO MANSO DE BH, 444, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>AV. CORNO MANSO DE BH, 444, CELVIA, 00000-000, VESPASIANO, MG</t>
+    <t>VANDERSON DOS SANTOS ANDRE - AV. THALES CHAGAS, 1587, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>AV. THALES CHAGAS, 1587, CELVIA, 00000-000, VESPASIANO, MG</t>
   </si>
 </sst>
 </file>
@@ -1686,25 +2499,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>219</v>
       </c>
@@ -1750,12 +2563,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>356</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>108</v>
@@ -1773,195 +2586,2449 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>337</v>
+      <c r="F109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A105:A109">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1972,23 +5039,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D84DA83-8FDC-4C97-BFE2-BF2B9B9B1FAB}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD109"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="17.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>219</v>
       </c>
@@ -2034,7 +5101,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -2057,7 +5124,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>221</v>
       </c>
@@ -2080,7 +5147,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>222</v>
       </c>
@@ -2103,7 +5170,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>223</v>
       </c>
@@ -2126,7 +5193,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>224</v>
       </c>
@@ -2149,7 +5216,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>225</v>
       </c>
@@ -2172,7 +5239,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2195,7 +5262,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>227</v>
       </c>
@@ -2218,7 +5285,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>228</v>
       </c>
@@ -2241,7 +5308,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>229</v>
       </c>
@@ -2264,7 +5331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>230</v>
       </c>
@@ -2287,7 +5354,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>231</v>
       </c>
@@ -2310,7 +5377,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>232</v>
       </c>
@@ -2333,7 +5400,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>233</v>
       </c>
@@ -2356,7 +5423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>234</v>
       </c>
@@ -2379,7 +5446,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>235</v>
       </c>
@@ -2402,7 +5469,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
@@ -2425,7 +5492,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>237</v>
       </c>
@@ -2448,7 +5515,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>238</v>
       </c>
@@ -2471,7 +5538,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>239</v>
       </c>
@@ -2494,7 +5561,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>240</v>
       </c>
@@ -2517,7 +5584,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -2540,7 +5607,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>242</v>
       </c>
@@ -2563,7 +5630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>243</v>
       </c>
@@ -2586,7 +5653,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>244</v>
       </c>
@@ -2609,7 +5676,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>245</v>
       </c>
@@ -2632,7 +5699,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>246</v>
       </c>
@@ -2655,7 +5722,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>247</v>
       </c>
@@ -2678,7 +5745,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>248</v>
       </c>
@@ -2701,7 +5768,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>249</v>
       </c>
@@ -2724,7 +5791,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>250</v>
       </c>
@@ -2747,7 +5814,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>251</v>
       </c>
@@ -2770,7 +5837,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>252</v>
       </c>
@@ -2793,7 +5860,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>253</v>
       </c>
@@ -2816,7 +5883,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>254</v>
       </c>
@@ -2839,7 +5906,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -2862,7 +5929,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2885,7 +5952,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>257</v>
       </c>
@@ -2908,7 +5975,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>258</v>
       </c>
@@ -2931,7 +5998,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>259</v>
       </c>
@@ -2954,7 +6021,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>260</v>
       </c>
@@ -2977,7 +6044,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>261</v>
       </c>
@@ -3000,7 +6067,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -3023,7 +6090,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>263</v>
       </c>
@@ -3046,7 +6113,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>264</v>
       </c>
@@ -3069,7 +6136,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>265</v>
       </c>
@@ -3092,7 +6159,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>266</v>
       </c>
@@ -3115,7 +6182,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>267</v>
       </c>
@@ -3138,7 +6205,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>268</v>
       </c>
@@ -3161,7 +6228,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>269</v>
       </c>
@@ -3184,7 +6251,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>270</v>
       </c>
@@ -3207,7 +6274,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>271</v>
       </c>
@@ -3230,7 +6297,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>272</v>
       </c>
@@ -3253,7 +6320,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>273</v>
       </c>
@@ -3276,7 +6343,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>274</v>
       </c>
@@ -3299,7 +6366,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>275</v>
       </c>
@@ -3322,7 +6389,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>276</v>
       </c>
@@ -3345,7 +6412,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>277</v>
       </c>
@@ -3368,7 +6435,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>278</v>
       </c>
@@ -3391,7 +6458,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>279</v>
       </c>
@@ -3414,7 +6481,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>280</v>
       </c>
@@ -3437,7 +6504,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>281</v>
       </c>
@@ -3460,7 +6527,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>282</v>
       </c>
@@ -3483,7 +6550,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>283</v>
       </c>
@@ -3506,7 +6573,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>284</v>
       </c>
@@ -3529,7 +6596,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>285</v>
       </c>
@@ -3552,7 +6619,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>286</v>
       </c>
@@ -3575,7 +6642,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>287</v>
       </c>
@@ -3598,7 +6665,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>288</v>
       </c>
@@ -3621,7 +6688,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>289</v>
       </c>
@@ -3644,7 +6711,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>290</v>
       </c>
@@ -3667,7 +6734,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>291</v>
       </c>
@@ -3690,7 +6757,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>292</v>
       </c>
@@ -3713,7 +6780,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>293</v>
       </c>
@@ -3736,7 +6803,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>294</v>
       </c>
@@ -3759,7 +6826,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>295</v>
       </c>
@@ -3782,7 +6849,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>296</v>
       </c>
@@ -3805,7 +6872,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>297</v>
       </c>
@@ -3828,7 +6895,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>298</v>
       </c>
@@ -3851,7 +6918,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>299</v>
       </c>
@@ -3874,7 +6941,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>300</v>
       </c>
@@ -3897,7 +6964,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>301</v>
       </c>
@@ -3920,7 +6987,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>302</v>
       </c>
@@ -3943,7 +7010,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>303</v>
       </c>
@@ -3966,7 +7033,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>304</v>
       </c>
@@ -3989,7 +7056,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>305</v>
       </c>
@@ -4012,7 +7079,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>306</v>
       </c>
@@ -4032,10 +7099,10 @@
         <v>216</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>307</v>
       </c>
@@ -4055,10 +7122,10 @@
         <v>216</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>308</v>
       </c>
@@ -4078,10 +7145,10 @@
         <v>216</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>309</v>
       </c>
@@ -4101,10 +7168,10 @@
         <v>216</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>310</v>
       </c>
@@ -4124,10 +7191,10 @@
         <v>216</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>311</v>
       </c>
@@ -4147,10 +7214,10 @@
         <v>216</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>312</v>
       </c>
@@ -4170,10 +7237,10 @@
         <v>216</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>313</v>
       </c>
@@ -4193,10 +7260,10 @@
         <v>216</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>314</v>
       </c>
@@ -4216,10 +7283,10 @@
         <v>216</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>315</v>
       </c>
@@ -4239,10 +7306,10 @@
         <v>216</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>316</v>
       </c>
@@ -4262,10 +7329,10 @@
         <v>216</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>317</v>
       </c>
@@ -4285,10 +7352,10 @@
         <v>216</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>318</v>
       </c>
@@ -4308,10 +7375,10 @@
         <v>216</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>319</v>
       </c>
@@ -4331,10 +7398,10 @@
         <v>216</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>320</v>
       </c>
@@ -4354,10 +7421,10 @@
         <v>216</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -4377,10 +7444,10 @@
         <v>216</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>322</v>
       </c>
@@ -4400,10 +7467,10 @@
         <v>216</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>323</v>
       </c>
@@ -4423,10 +7490,10 @@
         <v>216</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>324</v>
       </c>
@@ -4446,10 +7513,10 @@
         <v>216</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>325</v>
       </c>
@@ -4469,10 +7536,10 @@
         <v>216</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>326</v>
       </c>
@@ -4492,7 +7559,7 @@
         <v>216</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4506,23 +7573,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71DD28-F18A-41B8-8415-4DF1F3C2C403}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" customWidth="1"/>
-    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="9" max="9" width="96.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4545,16 +7612,16 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" t="s">
         <v>336</v>
       </c>
-      <c r="J1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -4577,21 +7644,21 @@
         <v>329</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>108</v>
@@ -4609,342 +7676,3406 @@
         <v>329</v>
       </c>
       <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" t="s">
+        <v>385</v>
+      </c>
+      <c r="I10" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I12" t="s">
+        <v>391</v>
+      </c>
+      <c r="J12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" t="s">
+        <v>394</v>
+      </c>
+      <c r="J13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" t="s">
+        <v>402</v>
+      </c>
+      <c r="I16" t="s">
+        <v>403</v>
+      </c>
+      <c r="J16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
+        <v>329</v>
+      </c>
+      <c r="H17" t="s">
+        <v>405</v>
+      </c>
+      <c r="I17" t="s">
+        <v>406</v>
+      </c>
+      <c r="J17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" t="s">
+        <v>407</v>
+      </c>
+      <c r="I18" t="s">
+        <v>408</v>
+      </c>
+      <c r="J18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H19" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" t="s">
+        <v>413</v>
+      </c>
+      <c r="I20" t="s">
+        <v>414</v>
+      </c>
+      <c r="J20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" t="s">
+        <v>416</v>
+      </c>
+      <c r="I21" t="s">
+        <v>417</v>
+      </c>
+      <c r="J21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>329</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" t="s">
+        <v>420</v>
+      </c>
+      <c r="J22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>329</v>
+      </c>
+      <c r="H24" t="s">
+        <v>425</v>
+      </c>
+      <c r="I24" t="s">
+        <v>426</v>
+      </c>
+      <c r="J24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>329</v>
+      </c>
+      <c r="H25" t="s">
+        <v>428</v>
+      </c>
+      <c r="I25" t="s">
+        <v>429</v>
+      </c>
+      <c r="J25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" t="s">
+        <v>431</v>
+      </c>
+      <c r="I26" t="s">
+        <v>432</v>
+      </c>
+      <c r="J26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" t="s">
+        <v>434</v>
+      </c>
+      <c r="I27" t="s">
+        <v>435</v>
+      </c>
+      <c r="J27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" t="s">
+        <v>437</v>
+      </c>
+      <c r="I28" t="s">
+        <v>438</v>
+      </c>
+      <c r="J28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" t="s">
+        <v>440</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+      <c r="J29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" t="s">
+        <v>443</v>
+      </c>
+      <c r="I30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" t="s">
+        <v>446</v>
+      </c>
+      <c r="I31" t="s">
+        <v>447</v>
+      </c>
+      <c r="J31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>330</v>
+      </c>
+      <c r="H32" t="s">
+        <v>449</v>
+      </c>
+      <c r="I32" t="s">
+        <v>450</v>
+      </c>
+      <c r="J32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" t="s">
+        <v>453</v>
+      </c>
+      <c r="J33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>330</v>
+      </c>
+      <c r="H34" t="s">
+        <v>343</v>
+      </c>
+      <c r="I34" t="s">
+        <v>344</v>
+      </c>
+      <c r="J34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>330</v>
+      </c>
+      <c r="H35" t="s">
+        <v>346</v>
+      </c>
+      <c r="I35" t="s">
+        <v>347</v>
+      </c>
+      <c r="J35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" t="s">
+        <v>349</v>
+      </c>
+      <c r="I36" t="s">
+        <v>350</v>
+      </c>
+      <c r="J36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>330</v>
+      </c>
+      <c r="H37" t="s">
+        <v>455</v>
+      </c>
+      <c r="I37" t="s">
+        <v>456</v>
+      </c>
+      <c r="J37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" t="s">
+        <v>458</v>
+      </c>
+      <c r="I38" t="s">
+        <v>459</v>
+      </c>
+      <c r="J38" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>330</v>
+      </c>
+      <c r="H39" t="s">
+        <v>461</v>
+      </c>
+      <c r="I39" t="s">
+        <v>462</v>
+      </c>
+      <c r="J39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" t="s">
+        <v>463</v>
+      </c>
+      <c r="I40" t="s">
+        <v>464</v>
+      </c>
+      <c r="J40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" t="s">
+        <v>466</v>
+      </c>
+      <c r="I41" t="s">
+        <v>467</v>
+      </c>
+      <c r="J41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" t="s">
+        <v>469</v>
+      </c>
+      <c r="I42" t="s">
+        <v>470</v>
+      </c>
+      <c r="J42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" t="s">
+        <v>330</v>
+      </c>
+      <c r="H43" t="s">
+        <v>472</v>
+      </c>
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>330</v>
+      </c>
+      <c r="H44" t="s">
+        <v>475</v>
+      </c>
+      <c r="I44" t="s">
+        <v>476</v>
+      </c>
+      <c r="J44" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" t="s">
+        <v>479</v>
+      </c>
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>330</v>
+      </c>
+      <c r="H46" t="s">
+        <v>480</v>
+      </c>
+      <c r="I46" t="s">
+        <v>481</v>
+      </c>
+      <c r="J46" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>330</v>
+      </c>
+      <c r="H47" t="s">
+        <v>483</v>
+      </c>
+      <c r="I47" t="s">
+        <v>484</v>
+      </c>
+      <c r="J47" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" t="s">
+        <v>330</v>
+      </c>
+      <c r="H48" t="s">
+        <v>485</v>
+      </c>
+      <c r="I48" t="s">
+        <v>486</v>
+      </c>
+      <c r="J48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H49" t="s">
+        <v>352</v>
+      </c>
+      <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" t="s">
+        <v>355</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" t="s">
+        <v>331</v>
+      </c>
+      <c r="H51" t="s">
+        <v>487</v>
+      </c>
+      <c r="I51" t="s">
+        <v>488</v>
+      </c>
+      <c r="J51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+      <c r="H52" t="s">
+        <v>489</v>
+      </c>
+      <c r="I52" t="s">
+        <v>490</v>
+      </c>
+      <c r="J52" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" t="s">
+        <v>492</v>
+      </c>
+      <c r="I53" t="s">
+        <v>493</v>
+      </c>
+      <c r="J53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" t="s">
+        <v>495</v>
+      </c>
+      <c r="I54" t="s">
+        <v>496</v>
+      </c>
+      <c r="J54" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>332</v>
+      </c>
+      <c r="H55" t="s">
+        <v>498</v>
+      </c>
+      <c r="I55" t="s">
+        <v>499</v>
+      </c>
+      <c r="J55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" t="s">
+        <v>332</v>
+      </c>
+      <c r="H56" t="s">
+        <v>501</v>
+      </c>
+      <c r="I56" t="s">
+        <v>502</v>
+      </c>
+      <c r="J56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I57" t="s">
+        <v>505</v>
+      </c>
+      <c r="J57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" t="s">
+        <v>332</v>
+      </c>
+      <c r="H58" t="s">
+        <v>507</v>
+      </c>
+      <c r="I58" t="s">
+        <v>508</v>
+      </c>
+      <c r="J58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="s">
+        <v>332</v>
+      </c>
+      <c r="H59" t="s">
+        <v>510</v>
+      </c>
+      <c r="I59" t="s">
+        <v>511</v>
+      </c>
+      <c r="J59" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" t="s">
+        <v>332</v>
+      </c>
+      <c r="H60" t="s">
+        <v>513</v>
+      </c>
+      <c r="I60" t="s">
+        <v>514</v>
+      </c>
+      <c r="J60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" t="s">
+        <v>516</v>
+      </c>
+      <c r="I61" t="s">
+        <v>517</v>
+      </c>
+      <c r="J61" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" t="s">
+        <v>332</v>
+      </c>
+      <c r="H62" t="s">
+        <v>519</v>
+      </c>
+      <c r="I62" t="s">
+        <v>520</v>
+      </c>
+      <c r="J62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" t="s">
+        <v>332</v>
+      </c>
+      <c r="H63" t="s">
+        <v>522</v>
+      </c>
+      <c r="I63" t="s">
+        <v>523</v>
+      </c>
+      <c r="J63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" t="s">
+        <v>332</v>
+      </c>
+      <c r="H64" t="s">
+        <v>525</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" t="s">
+        <v>332</v>
+      </c>
+      <c r="H65" t="s">
+        <v>528</v>
+      </c>
+      <c r="I65" t="s">
+        <v>529</v>
+      </c>
+      <c r="J65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" t="s">
+        <v>531</v>
+      </c>
+      <c r="I66" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" t="s">
+        <v>534</v>
+      </c>
+      <c r="I67" t="s">
+        <v>535</v>
+      </c>
+      <c r="J67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" t="s">
+        <v>537</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" t="s">
+        <v>539</v>
+      </c>
+      <c r="I69" t="s">
+        <v>540</v>
+      </c>
+      <c r="J69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" t="s">
+        <v>332</v>
+      </c>
+      <c r="H70" t="s">
+        <v>542</v>
+      </c>
+      <c r="I70" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" t="s">
+        <v>544</v>
+      </c>
+      <c r="I71" t="s">
+        <v>545</v>
+      </c>
+      <c r="J71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" t="s">
+        <v>547</v>
+      </c>
+      <c r="I72" t="s">
+        <v>548</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" t="s">
+        <v>549</v>
+      </c>
+      <c r="I73" t="s">
+        <v>550</v>
+      </c>
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" t="s">
+        <v>552</v>
+      </c>
+      <c r="I74" t="s">
+        <v>553</v>
+      </c>
+      <c r="J74" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" t="s">
+        <v>332</v>
+      </c>
+      <c r="H75" t="s">
+        <v>555</v>
+      </c>
+      <c r="I75" t="s">
+        <v>556</v>
+      </c>
+      <c r="J75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" t="s">
+        <v>558</v>
+      </c>
+      <c r="I76" t="s">
+        <v>559</v>
+      </c>
+      <c r="J76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" t="s">
+        <v>560</v>
+      </c>
+      <c r="I77" t="s">
+        <v>561</v>
+      </c>
+      <c r="J77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+      <c r="H78" t="s">
+        <v>563</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" t="s">
+        <v>566</v>
+      </c>
+      <c r="I79" t="s">
+        <v>567</v>
+      </c>
+      <c r="J79" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" t="s">
+        <v>569</v>
+      </c>
+      <c r="I80" t="s">
+        <v>570</v>
+      </c>
+      <c r="J80" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" t="s">
+        <v>572</v>
+      </c>
+      <c r="I81" t="s">
+        <v>573</v>
+      </c>
+      <c r="J81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" t="s">
+        <v>332</v>
+      </c>
+      <c r="H82" t="s">
+        <v>575</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" t="s">
+        <v>578</v>
+      </c>
+      <c r="I83" t="s">
+        <v>579</v>
+      </c>
+      <c r="J83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>332</v>
+      </c>
+      <c r="H84" t="s">
+        <v>581</v>
+      </c>
+      <c r="I84" t="s">
+        <v>582</v>
+      </c>
+      <c r="J84" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" t="s">
+        <v>332</v>
+      </c>
+      <c r="H85" t="s">
+        <v>583</v>
+      </c>
+      <c r="I85" t="s">
+        <v>584</v>
+      </c>
+      <c r="J85" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" t="s">
+        <v>332</v>
+      </c>
+      <c r="H86" t="s">
+        <v>586</v>
+      </c>
+      <c r="I86" t="s">
+        <v>587</v>
+      </c>
+      <c r="J86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" t="s">
+        <v>332</v>
+      </c>
+      <c r="H87" t="s">
+        <v>589</v>
+      </c>
+      <c r="I87" t="s">
+        <v>590</v>
+      </c>
+      <c r="J87" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" t="s">
+        <v>332</v>
+      </c>
+      <c r="H88" t="s">
+        <v>592</v>
+      </c>
+      <c r="I88" t="s">
+        <v>593</v>
+      </c>
+      <c r="J88" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" t="s">
+        <v>594</v>
+      </c>
+      <c r="I89" t="s">
+        <v>595</v>
+      </c>
+      <c r="J89" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" t="s">
+        <v>335</v>
+      </c>
+      <c r="H90" t="s">
+        <v>597</v>
+      </c>
+      <c r="I90" t="s">
+        <v>598</v>
+      </c>
+      <c r="J90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" t="s">
+        <v>600</v>
+      </c>
+      <c r="I91" t="s">
+        <v>601</v>
+      </c>
+      <c r="J91" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" t="s">
+        <v>335</v>
+      </c>
+      <c r="H92" t="s">
+        <v>603</v>
+      </c>
+      <c r="I92" t="s">
+        <v>604</v>
+      </c>
+      <c r="J92" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" t="s">
+        <v>335</v>
+      </c>
+      <c r="H93" t="s">
+        <v>358</v>
+      </c>
+      <c r="I93" t="s">
+        <v>359</v>
+      </c>
+      <c r="J93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" t="s">
         <v>361</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I94" t="s">
         <v>362</v>
       </c>
-      <c r="J3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J94" t="s">
         <v>363</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" t="s">
+        <v>335</v>
+      </c>
+      <c r="H95" t="s">
         <v>364</v>
       </c>
-      <c r="J5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I95" t="s">
         <v>365</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J95" t="s">
         <v>366</v>
       </c>
-      <c r="J7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I8" t="s">
-        <v>349</v>
-      </c>
-      <c r="J8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" t="s">
-        <v>332</v>
-      </c>
-      <c r="H9" t="s">
-        <v>367</v>
-      </c>
-      <c r="I9" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" t="s">
+        <v>335</v>
+      </c>
+      <c r="H96" t="s">
+        <v>606</v>
+      </c>
+      <c r="I96" t="s">
+        <v>607</v>
+      </c>
+      <c r="J96" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" t="s">
+        <v>609</v>
+      </c>
+      <c r="I97" t="s">
+        <v>610</v>
+      </c>
+      <c r="J97" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" t="s">
+        <v>335</v>
+      </c>
+      <c r="H98" t="s">
+        <v>612</v>
+      </c>
+      <c r="I98" t="s">
+        <v>613</v>
+      </c>
+      <c r="J98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" t="s">
+        <v>615</v>
+      </c>
+      <c r="I99" t="s">
+        <v>616</v>
+      </c>
+      <c r="J99" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" t="s">
+        <v>335</v>
+      </c>
+      <c r="H100" t="s">
+        <v>618</v>
+      </c>
+      <c r="I100" t="s">
+        <v>619</v>
+      </c>
+      <c r="J100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" t="s">
+        <v>335</v>
+      </c>
+      <c r="H101" t="s">
+        <v>620</v>
+      </c>
+      <c r="I101" t="s">
+        <v>621</v>
+      </c>
+      <c r="J101" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" t="s">
+        <v>216</v>
+      </c>
+      <c r="G102" t="s">
+        <v>335</v>
+      </c>
+      <c r="H102" t="s">
+        <v>622</v>
+      </c>
+      <c r="I102" t="s">
+        <v>623</v>
+      </c>
+      <c r="J102" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" t="s">
+        <v>335</v>
+      </c>
+      <c r="H103" t="s">
+        <v>625</v>
+      </c>
+      <c r="I103" t="s">
+        <v>626</v>
+      </c>
+      <c r="J103" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" t="s">
+        <v>335</v>
+      </c>
+      <c r="H104" t="s">
+        <v>627</v>
+      </c>
+      <c r="I104" t="s">
+        <v>628</v>
+      </c>
+      <c r="J104" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" t="s">
+        <v>335</v>
+      </c>
+      <c r="H105" t="s">
+        <v>629</v>
+      </c>
+      <c r="I105" t="s">
+        <v>630</v>
+      </c>
+      <c r="J105" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" t="s">
+        <v>335</v>
+      </c>
+      <c r="H106" t="s">
+        <v>631</v>
+      </c>
+      <c r="I106" t="s">
+        <v>632</v>
+      </c>
+      <c r="J106" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>335</v>
+      </c>
+      <c r="H107" t="s">
+        <v>634</v>
+      </c>
+      <c r="I107" t="s">
+        <v>635</v>
+      </c>
+      <c r="J107" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>325</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B108" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C108" t="s">
         <v>132</v>
       </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" t="s">
         <v>213</v>
       </c>
-      <c r="F10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" t="s">
-        <v>337</v>
-      </c>
-      <c r="H10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F108" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" t="s">
+        <v>335</v>
+      </c>
+      <c r="H108" t="s">
+        <v>637</v>
+      </c>
+      <c r="I108" t="s">
+        <v>638</v>
+      </c>
+      <c r="J108" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>326</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" t="s">
+        <v>335</v>
+      </c>
+      <c r="H109" t="s">
+        <v>640</v>
+      </c>
+      <c r="I109" t="s">
+        <v>641</v>
+      </c>
+      <c r="J109" t="s">
         <v>360</v>
       </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" t="s">
-        <v>337</v>
-      </c>
-      <c r="H11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4956,32 +11087,32 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>332</v>
       </c>

--- a/1 - A processar/1 - Enderecos_Colaboradores.xlsx
+++ b/1 - A processar/1 - Enderecos_Colaboradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\1 - A processar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54FF91-E21F-4875-BDBA-98442C85C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB8846-4487-4A32-B3DF-BEF239803661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="487">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -1068,33 +1068,6 @@
     <t>NOVA BADEN, 00000-000, BETIM, MG</t>
   </si>
   <si>
-    <t>WALLACE ADRIANO COSTA - RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>CENTRO, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>WELINTON COSTA - RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>DANIEL BRITO ALVES BATISTA - RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
-  </si>
-  <si>
-    <t>NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
-  </si>
-  <si>
     <t>JEFFERSON RICARDO FERREIRA - RUA FRANCISCO SANTOS, 11, FLORESTA, 00000-000, MATOZINHOS, MG, T3</t>
   </si>
   <si>
@@ -1113,33 +1086,12 @@
     <t>SÃO SEBASTIÃO, 00000-000, MATOZINHOS, MG</t>
   </si>
   <si>
-    <t>FERNANDO COELHO SILVA - RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
     <t>CELVIA, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
-    <t>FERNANDO PATROCINIO DE JESUS - RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
     <t>CAIEIRAS, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
-    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
     <t>RENATO JULIO SOARES - RUA EMBOABAS,  160, LARANJEIRAS, 00000-000, BETIM, MG, T1</t>
   </si>
   <si>
@@ -1149,84 +1101,9 @@
     <t>LARANJEIRAS, 00000-000, BETIM, MG</t>
   </si>
   <si>
-    <t>VANDERLEI SANTANA MENDES - RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>PETROVALE, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>WALISSON AFONSO CARNEIRO - RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
-  </si>
-  <si>
-    <t>ANDERSON DE ARAUJO MELO - R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
     <t>EYMARD, 00000-000, BELO HORIZONTE, MG</t>
   </si>
   <si>
-    <t>ANDERSON LUIZ - BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>CABANA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>DIEGO VINICIUS DA ROCHA CARNEIRO - RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>FRANCISCO PAULO XAVIER - RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>JACKSON ANTONIO DA SILVA - RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>JOAQUIM DOS SANTOS GOMES - RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>JULIANA, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG, T1</t>
-  </si>
-  <si>
-    <t>RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
-    <t>ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
-  </si>
-  <si>
     <t>LEANDRO VITOR - R. MARILENE FERREIRA DOS SANTOS, 87, JARDIM DOS COMERCIARIOS, 00000-000, BELO HORIZONTE, MG, T1</t>
   </si>
   <si>
@@ -1377,75 +1254,6 @@
     <t>INDUSTRIAL, 00000-000, CONTAGEM, MG</t>
   </si>
   <si>
-    <t>RAFAEL DINIZ COELHO - RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>SERGIO ALVES - RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG, T2</t>
-  </si>
-  <si>
-    <t>BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
-  </si>
-  <si>
-    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>ROSENEY PORFIRIO DA SILVA - RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>VALDEVINO GOMES DA SILVA - RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
-  </si>
-  <si>
-    <t>JOSCK JUAN SANTOS NASCIMENTO - RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG, T2</t>
-  </si>
-  <si>
-    <t>RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
-  </si>
-  <si>
-    <t>BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
-  </si>
-  <si>
     <t>ANDRE VINICIUS SOARES - AV. SÃO SEBASTIÃO, 1133, CAMPINHO, 00000-000, LAGOA SANTA, MG, T2</t>
   </si>
   <si>
@@ -1524,129 +1332,6 @@
     <t>FELIPE CLAUDIO, 00000-000, PEDRO LEOPOLDO, MG</t>
   </si>
   <si>
-    <t>FLAVIO DA SILVA FERNANDES - RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>GUILHERME LOPEZ - R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>HUGO LEONARDO SILVA - RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>MARCIO RODRIGUES GONCALVES - RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>MARCIO VIEIRA MACENA - RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>MARCOS HENRIQUE DUARTE COSTA - RUA ELIAS MARQUES, 433, TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA ELIAS MARQUES, 433, TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>RAFAEL WASHINGTON VIEIRA - RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>ROGER LUCAS DE FREITAS SANTOS - RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>TIAGO GOMES - RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
-  </si>
-  <si>
-    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
-  </si>
-  <si>
-    <t>SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
-  </si>
-  <si>
-    <t>FABRICIO AUGUSTO CARDOZO - RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
-  </si>
-  <si>
-    <t>PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
-  </si>
-  <si>
-    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG</t>
-  </si>
-  <si>
-    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
-  </si>
-  <si>
-    <t>ADRIANO RODRIGUES DA SILVA - R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
     <t>INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
   </si>
   <si>
@@ -1680,63 +1365,6 @@
     <t>NOSSA SENHORA DO CARMO, 00000-000, Santa Luzia, MG</t>
   </si>
   <si>
-    <t>EDVALDO MACIEL JARDIM - RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>FLAVIANO ALVES MUNIZ - TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>BONANZA, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>GUILHERME LOPES DE ALMEIDA - RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>HUDSON DIAS RAMOS - AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>PALMITAL, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>JOSÉ LUCAS DE JESUS - RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>KLEBER DE AVILA TORRES - RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>MARCELO GUILHERME - RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG, T4</t>
-  </si>
-  <si>
-    <t>RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
-    <t>CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
-  </si>
-  <si>
     <t>PAULO AFONSO FONSECA - RUA MANAUS, 39, PADRE MIGUEL, 00000-000, SANTA LUZIA, MG, T4</t>
   </si>
   <si>
@@ -1837,99 +1465,6 @@
   </si>
   <si>
     <t>JARDIM ALTEROSA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>NAZIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>EDUARDO HENRIQUE DOS SANTOS MORAIS - RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>FLANKLIN SILVA BARROS - RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>CENTRO, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>GILBERTO SANTOS DA SILVA - RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>HUGO AUGUSTO DOS SANTOS - RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>CÉLVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>ITALO MATHEUS B. - RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>JASSON FERREIRA CAMPOS - RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>JOAO VITOR TAVORA SILVA - RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>JOSE RAMON ISERNIA RODRIGUEZ - RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>LEONARDO BATISTA - R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>LEONARDO ALVES - AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
-  </si>
-  <si>
-    <t>MARCO AURELIO VIEIRA - RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
-  </si>
-  <si>
-    <t>RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG</t>
   </si>
   <si>
     <t>PAULO HENRIQUE RODRIGUES FERREIRA - AV. CARLOS MURTA FILHO, 776, GAVEA 2, 00000-000, VESPASIANO, MG, T5</t>
@@ -2499,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2611,19 +2146,19 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>216</v>
@@ -2634,19 +2169,19 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>216</v>
@@ -2657,13 +2192,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>218</v>
@@ -2680,13 +2215,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>218</v>
@@ -2703,13 +2238,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>218</v>
@@ -2726,13 +2261,13 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>218</v>
@@ -2749,13 +2284,13 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>218</v>
@@ -2772,13 +2307,13 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>218</v>
@@ -2795,13 +2330,13 @@
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>218</v>
@@ -2818,13 +2353,13 @@
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>218</v>
@@ -2841,19 +2376,19 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>216</v>
@@ -2864,19 +2399,19 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>216</v>
@@ -2887,19 +2422,19 @@
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>216</v>
@@ -2910,19 +2445,19 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>216</v>
@@ -2933,19 +2468,19 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>216</v>
@@ -2956,2079 +2491,791 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G109" s="3" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A105:A109">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A50:A53">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7573,10 +5820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71DD28-F18A-41B8-8415-4DF1F3C2C403}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7708,30 +5955,30 @@
         <v>329</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
         <v>216</v>
@@ -7740,30 +5987,30 @@
         <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
         <v>216</v>
@@ -7772,24 +6019,24 @@
         <v>329</v>
       </c>
       <c r="H6" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I6" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J6" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>218</v>
@@ -7804,24 +6051,24 @@
         <v>329</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
         <v>218</v>
@@ -7836,24 +6083,24 @@
         <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J8" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
         <v>218</v>
@@ -7868,24 +6115,24 @@
         <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="I9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="J9" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
@@ -7900,24 +6147,24 @@
         <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="I10" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="J10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
         <v>218</v>
@@ -7932,24 +6179,24 @@
         <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="I11" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
         <v>218</v>
@@ -7964,24 +6211,24 @@
         <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="I12" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J12" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
@@ -7996,24 +6243,24 @@
         <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="I13" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="J13" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
@@ -8028,30 +6275,30 @@
         <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J14" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>216</v>
@@ -8060,30 +6307,30 @@
         <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="I15" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J15" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
         <v>216</v>
@@ -8092,30 +6339,30 @@
         <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I16" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="J16" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
         <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
         <v>216</v>
@@ -8124,30 +6371,30 @@
         <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="I17" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="J17" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
         <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
         <v>216</v>
@@ -8156,30 +6403,30 @@
         <v>329</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="I18" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="J18" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
         <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
         <v>216</v>
@@ -8188,2893 +6435,1101 @@
         <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="I19" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J19" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
         <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H20" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I20" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J20" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
         <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H21" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="I21" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="J21" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
         <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="I22" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="J22" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
         <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
         <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H23" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J23" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
         <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H24" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="I24" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="J24" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="I25" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="J25" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
         <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H26" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I26" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="J26" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
         <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H27" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="I27" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="J27" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
         <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
         <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H28" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="I28" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
         <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H29" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="J29" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
         <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="J30" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
         <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H31" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="I31" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="J31" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
         <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
         <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="I32" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="J32" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
         <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
         <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H33" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="I33" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="J33" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
         <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
         <v>216</v>
       </c>
       <c r="G34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H34" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="J34" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="I35" t="s">
-        <v>347</v>
+        <v>435</v>
       </c>
       <c r="J35" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
         <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
         <v>216</v>
       </c>
       <c r="G36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s">
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="J36" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
         <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
         <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H37" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="I37" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
         <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
         <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H38" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="I38" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="J38" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
         <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
         <v>216</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H39" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="I39" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J39" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
         <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
         <v>216</v>
       </c>
       <c r="G40" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H40" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="I40" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="J40" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
         <v>216</v>
       </c>
       <c r="G41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H41" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="I41" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J41" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
         <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
         <v>216</v>
       </c>
       <c r="G42" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H42" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="I42" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="J42" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
         <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
         <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H43" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="I43" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="J43" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
         <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H44" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="J44" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H45" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="I45" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
         <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H46" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="I46" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="J46" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
         <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="I47" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="J47" t="s">
-        <v>477</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
         <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
         <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H48" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="I48" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="J48" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
         <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
         <v>216</v>
       </c>
       <c r="G49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="I49" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="J49" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
         <v>216</v>
       </c>
       <c r="G50" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
       <c r="I50" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
       <c r="J50" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>216</v>
       </c>
       <c r="G51" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H51" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="I51" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
         <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
         <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H52" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I52" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J52" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
         <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
         <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H53" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="I53" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J53" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F54" t="s">
-        <v>216</v>
-      </c>
-      <c r="G54" t="s">
-        <v>332</v>
-      </c>
-      <c r="H54" t="s">
-        <v>495</v>
-      </c>
-      <c r="I54" t="s">
-        <v>496</v>
-      </c>
-      <c r="J54" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>272</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" t="s">
-        <v>332</v>
-      </c>
-      <c r="H55" t="s">
-        <v>498</v>
-      </c>
-      <c r="I55" t="s">
-        <v>499</v>
-      </c>
-      <c r="J55" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>273</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" t="s">
-        <v>206</v>
-      </c>
-      <c r="F56" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" t="s">
-        <v>501</v>
-      </c>
-      <c r="I56" t="s">
-        <v>502</v>
-      </c>
-      <c r="J56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" t="s">
-        <v>216</v>
-      </c>
-      <c r="G57" t="s">
-        <v>332</v>
-      </c>
-      <c r="H57" t="s">
-        <v>504</v>
-      </c>
-      <c r="I57" t="s">
-        <v>505</v>
-      </c>
-      <c r="J57" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>275</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" t="s">
-        <v>206</v>
-      </c>
-      <c r="F58" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" t="s">
-        <v>332</v>
-      </c>
-      <c r="H58" t="s">
-        <v>507</v>
-      </c>
-      <c r="I58" t="s">
-        <v>508</v>
-      </c>
-      <c r="J58" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>276</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" t="s">
-        <v>206</v>
-      </c>
-      <c r="F59" t="s">
-        <v>216</v>
-      </c>
-      <c r="G59" t="s">
-        <v>332</v>
-      </c>
-      <c r="H59" t="s">
-        <v>510</v>
-      </c>
-      <c r="I59" t="s">
-        <v>511</v>
-      </c>
-      <c r="J59" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>277</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" t="s">
-        <v>216</v>
-      </c>
-      <c r="G60" t="s">
-        <v>332</v>
-      </c>
-      <c r="H60" t="s">
-        <v>513</v>
-      </c>
-      <c r="I60" t="s">
-        <v>514</v>
-      </c>
-      <c r="J60" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" t="s">
-        <v>206</v>
-      </c>
-      <c r="F61" t="s">
-        <v>216</v>
-      </c>
-      <c r="G61" t="s">
-        <v>332</v>
-      </c>
-      <c r="H61" t="s">
-        <v>516</v>
-      </c>
-      <c r="I61" t="s">
-        <v>517</v>
-      </c>
-      <c r="J61" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" t="s">
-        <v>216</v>
-      </c>
-      <c r="G62" t="s">
-        <v>332</v>
-      </c>
-      <c r="H62" t="s">
-        <v>519</v>
-      </c>
-      <c r="I62" t="s">
-        <v>520</v>
-      </c>
-      <c r="J62" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>280</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" t="s">
-        <v>216</v>
-      </c>
-      <c r="G63" t="s">
-        <v>332</v>
-      </c>
-      <c r="H63" t="s">
-        <v>522</v>
-      </c>
-      <c r="I63" t="s">
-        <v>523</v>
-      </c>
-      <c r="J63" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>281</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" t="s">
-        <v>332</v>
-      </c>
-      <c r="H64" t="s">
-        <v>525</v>
-      </c>
-      <c r="I64" t="s">
-        <v>526</v>
-      </c>
-      <c r="J64" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" t="s">
-        <v>332</v>
-      </c>
-      <c r="H65" t="s">
-        <v>528</v>
-      </c>
-      <c r="I65" t="s">
-        <v>529</v>
-      </c>
-      <c r="J65" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" t="s">
-        <v>218</v>
-      </c>
-      <c r="E66" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" t="s">
-        <v>216</v>
-      </c>
-      <c r="G66" t="s">
-        <v>332</v>
-      </c>
-      <c r="H66" t="s">
-        <v>531</v>
-      </c>
-      <c r="I66" t="s">
-        <v>532</v>
-      </c>
-      <c r="J66" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" t="s">
-        <v>332</v>
-      </c>
-      <c r="H67" t="s">
-        <v>534</v>
-      </c>
-      <c r="I67" t="s">
-        <v>535</v>
-      </c>
-      <c r="J67" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>285</v>
-      </c>
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" t="s">
-        <v>216</v>
-      </c>
-      <c r="G68" t="s">
-        <v>332</v>
-      </c>
-      <c r="H68" t="s">
-        <v>537</v>
-      </c>
-      <c r="I68" t="s">
-        <v>538</v>
-      </c>
-      <c r="J68" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>218</v>
-      </c>
-      <c r="E69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F69" t="s">
-        <v>216</v>
-      </c>
-      <c r="G69" t="s">
-        <v>332</v>
-      </c>
-      <c r="H69" t="s">
-        <v>539</v>
-      </c>
-      <c r="I69" t="s">
-        <v>540</v>
-      </c>
-      <c r="J69" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>287</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" t="s">
-        <v>218</v>
-      </c>
-      <c r="E70" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H70" t="s">
-        <v>542</v>
-      </c>
-      <c r="I70" t="s">
-        <v>543</v>
-      </c>
-      <c r="J70" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" t="s">
-        <v>332</v>
-      </c>
-      <c r="H71" t="s">
-        <v>544</v>
-      </c>
-      <c r="I71" t="s">
-        <v>545</v>
-      </c>
-      <c r="J71" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" t="s">
-        <v>332</v>
-      </c>
-      <c r="H72" t="s">
-        <v>547</v>
-      </c>
-      <c r="I72" t="s">
-        <v>548</v>
-      </c>
-      <c r="J72" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" t="s">
-        <v>332</v>
-      </c>
-      <c r="H73" t="s">
-        <v>549</v>
-      </c>
-      <c r="I73" t="s">
-        <v>550</v>
-      </c>
-      <c r="J73" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" t="s">
-        <v>216</v>
-      </c>
-      <c r="G74" t="s">
-        <v>332</v>
-      </c>
-      <c r="H74" t="s">
-        <v>552</v>
-      </c>
-      <c r="I74" t="s">
-        <v>553</v>
-      </c>
-      <c r="J74" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" t="s">
-        <v>216</v>
-      </c>
-      <c r="G75" t="s">
-        <v>332</v>
-      </c>
-      <c r="H75" t="s">
-        <v>555</v>
-      </c>
-      <c r="I75" t="s">
-        <v>556</v>
-      </c>
-      <c r="J75" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" t="s">
-        <v>332</v>
-      </c>
-      <c r="H76" t="s">
-        <v>558</v>
-      </c>
-      <c r="I76" t="s">
-        <v>559</v>
-      </c>
-      <c r="J76" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>294</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" t="s">
-        <v>216</v>
-      </c>
-      <c r="G77" t="s">
-        <v>332</v>
-      </c>
-      <c r="H77" t="s">
-        <v>560</v>
-      </c>
-      <c r="I77" t="s">
-        <v>561</v>
-      </c>
-      <c r="J77" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" t="s">
-        <v>216</v>
-      </c>
-      <c r="G78" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" t="s">
-        <v>563</v>
-      </c>
-      <c r="I78" t="s">
-        <v>564</v>
-      </c>
-      <c r="J78" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>296</v>
-      </c>
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" t="s">
-        <v>218</v>
-      </c>
-      <c r="E79" t="s">
-        <v>210</v>
-      </c>
-      <c r="F79" t="s">
-        <v>216</v>
-      </c>
-      <c r="G79" t="s">
-        <v>332</v>
-      </c>
-      <c r="H79" t="s">
-        <v>566</v>
-      </c>
-      <c r="I79" t="s">
-        <v>567</v>
-      </c>
-      <c r="J79" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>297</v>
-      </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" t="s">
-        <v>216</v>
-      </c>
-      <c r="G80" t="s">
-        <v>332</v>
-      </c>
-      <c r="H80" t="s">
-        <v>569</v>
-      </c>
-      <c r="I80" t="s">
-        <v>570</v>
-      </c>
-      <c r="J80" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>298</v>
-      </c>
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" t="s">
-        <v>210</v>
-      </c>
-      <c r="F81" t="s">
-        <v>216</v>
-      </c>
-      <c r="G81" t="s">
-        <v>332</v>
-      </c>
-      <c r="H81" t="s">
-        <v>572</v>
-      </c>
-      <c r="I81" t="s">
-        <v>573</v>
-      </c>
-      <c r="J81" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>299</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" t="s">
-        <v>210</v>
-      </c>
-      <c r="F82" t="s">
-        <v>216</v>
-      </c>
-      <c r="G82" t="s">
-        <v>332</v>
-      </c>
-      <c r="H82" t="s">
-        <v>575</v>
-      </c>
-      <c r="I82" t="s">
-        <v>576</v>
-      </c>
-      <c r="J82" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>300</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" t="s">
-        <v>216</v>
-      </c>
-      <c r="G83" t="s">
-        <v>332</v>
-      </c>
-      <c r="H83" t="s">
-        <v>578</v>
-      </c>
-      <c r="I83" t="s">
-        <v>579</v>
-      </c>
-      <c r="J83" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" t="s">
-        <v>210</v>
-      </c>
-      <c r="F84" t="s">
-        <v>216</v>
-      </c>
-      <c r="G84" t="s">
-        <v>332</v>
-      </c>
-      <c r="H84" t="s">
-        <v>581</v>
-      </c>
-      <c r="I84" t="s">
-        <v>582</v>
-      </c>
-      <c r="J84" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" t="s">
-        <v>216</v>
-      </c>
-      <c r="G85" t="s">
-        <v>332</v>
-      </c>
-      <c r="H85" t="s">
-        <v>583</v>
-      </c>
-      <c r="I85" t="s">
-        <v>584</v>
-      </c>
-      <c r="J85" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>303</v>
-      </c>
-      <c r="B86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" t="s">
-        <v>212</v>
-      </c>
-      <c r="F86" t="s">
-        <v>216</v>
-      </c>
-      <c r="G86" t="s">
-        <v>332</v>
-      </c>
-      <c r="H86" t="s">
-        <v>586</v>
-      </c>
-      <c r="I86" t="s">
-        <v>587</v>
-      </c>
-      <c r="J86" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" t="s">
-        <v>218</v>
-      </c>
-      <c r="E87" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" t="s">
-        <v>216</v>
-      </c>
-      <c r="G87" t="s">
-        <v>332</v>
-      </c>
-      <c r="H87" t="s">
-        <v>589</v>
-      </c>
-      <c r="I87" t="s">
-        <v>590</v>
-      </c>
-      <c r="J87" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>305</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" t="s">
-        <v>216</v>
-      </c>
-      <c r="G88" t="s">
-        <v>332</v>
-      </c>
-      <c r="H88" t="s">
-        <v>592</v>
-      </c>
-      <c r="I88" t="s">
-        <v>593</v>
-      </c>
-      <c r="J88" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>306</v>
-      </c>
-      <c r="B89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" t="s">
-        <v>218</v>
-      </c>
-      <c r="E89" t="s">
-        <v>213</v>
-      </c>
-      <c r="F89" t="s">
-        <v>216</v>
-      </c>
-      <c r="G89" t="s">
-        <v>335</v>
-      </c>
-      <c r="H89" t="s">
-        <v>594</v>
-      </c>
-      <c r="I89" t="s">
-        <v>595</v>
-      </c>
-      <c r="J89" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>307</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" t="s">
-        <v>216</v>
-      </c>
-      <c r="G90" t="s">
-        <v>335</v>
-      </c>
-      <c r="H90" t="s">
-        <v>597</v>
-      </c>
-      <c r="I90" t="s">
-        <v>598</v>
-      </c>
-      <c r="J90" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>308</v>
-      </c>
-      <c r="B91" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" t="s">
-        <v>216</v>
-      </c>
-      <c r="G91" t="s">
-        <v>335</v>
-      </c>
-      <c r="H91" t="s">
-        <v>600</v>
-      </c>
-      <c r="I91" t="s">
-        <v>601</v>
-      </c>
-      <c r="J91" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>309</v>
-      </c>
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" t="s">
-        <v>216</v>
-      </c>
-      <c r="G92" t="s">
-        <v>335</v>
-      </c>
-      <c r="H92" t="s">
-        <v>603</v>
-      </c>
-      <c r="I92" t="s">
-        <v>604</v>
-      </c>
-      <c r="J92" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>310</v>
-      </c>
-      <c r="B93" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" t="s">
-        <v>216</v>
-      </c>
-      <c r="G93" t="s">
-        <v>335</v>
-      </c>
-      <c r="H93" t="s">
-        <v>358</v>
-      </c>
-      <c r="I93" t="s">
-        <v>359</v>
-      </c>
-      <c r="J93" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>311</v>
-      </c>
-      <c r="B94" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" t="s">
-        <v>218</v>
-      </c>
-      <c r="E94" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" t="s">
-        <v>216</v>
-      </c>
-      <c r="G94" t="s">
-        <v>335</v>
-      </c>
-      <c r="H94" t="s">
-        <v>361</v>
-      </c>
-      <c r="I94" t="s">
-        <v>362</v>
-      </c>
-      <c r="J94" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>312</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" t="s">
-        <v>213</v>
-      </c>
-      <c r="F95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G95" t="s">
-        <v>335</v>
-      </c>
-      <c r="H95" t="s">
-        <v>364</v>
-      </c>
-      <c r="I95" t="s">
-        <v>365</v>
-      </c>
-      <c r="J95" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>313</v>
-      </c>
-      <c r="B96" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" t="s">
-        <v>218</v>
-      </c>
-      <c r="E96" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" t="s">
-        <v>335</v>
-      </c>
-      <c r="H96" t="s">
-        <v>606</v>
-      </c>
-      <c r="I96" t="s">
-        <v>607</v>
-      </c>
-      <c r="J96" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>314</v>
-      </c>
-      <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E97" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" t="s">
-        <v>216</v>
-      </c>
-      <c r="G97" t="s">
-        <v>335</v>
-      </c>
-      <c r="H97" t="s">
-        <v>609</v>
-      </c>
-      <c r="I97" t="s">
-        <v>610</v>
-      </c>
-      <c r="J97" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>315</v>
-      </c>
-      <c r="B98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>218</v>
-      </c>
-      <c r="E98" t="s">
-        <v>213</v>
-      </c>
-      <c r="F98" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" t="s">
-        <v>335</v>
-      </c>
-      <c r="H98" t="s">
-        <v>612</v>
-      </c>
-      <c r="I98" t="s">
-        <v>613</v>
-      </c>
-      <c r="J98" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>316</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" t="s">
-        <v>213</v>
-      </c>
-      <c r="F99" t="s">
-        <v>216</v>
-      </c>
-      <c r="G99" t="s">
-        <v>335</v>
-      </c>
-      <c r="H99" t="s">
-        <v>615</v>
-      </c>
-      <c r="I99" t="s">
-        <v>616</v>
-      </c>
-      <c r="J99" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>317</v>
-      </c>
-      <c r="B100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" t="s">
-        <v>213</v>
-      </c>
-      <c r="F100" t="s">
-        <v>216</v>
-      </c>
-      <c r="G100" t="s">
-        <v>335</v>
-      </c>
-      <c r="H100" t="s">
-        <v>618</v>
-      </c>
-      <c r="I100" t="s">
-        <v>619</v>
-      </c>
-      <c r="J100" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>318</v>
-      </c>
-      <c r="B101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" t="s">
-        <v>216</v>
-      </c>
-      <c r="G101" t="s">
-        <v>335</v>
-      </c>
-      <c r="H101" t="s">
-        <v>620</v>
-      </c>
-      <c r="I101" t="s">
-        <v>621</v>
-      </c>
-      <c r="J101" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>319</v>
-      </c>
-      <c r="B102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" t="s">
-        <v>130</v>
-      </c>
-      <c r="D102" t="s">
-        <v>218</v>
-      </c>
-      <c r="E102" t="s">
-        <v>213</v>
-      </c>
-      <c r="F102" t="s">
-        <v>216</v>
-      </c>
-      <c r="G102" t="s">
-        <v>335</v>
-      </c>
-      <c r="H102" t="s">
-        <v>622</v>
-      </c>
-      <c r="I102" t="s">
-        <v>623</v>
-      </c>
-      <c r="J102" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>320</v>
-      </c>
-      <c r="B103" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" t="s">
-        <v>213</v>
-      </c>
-      <c r="F103" t="s">
-        <v>216</v>
-      </c>
-      <c r="G103" t="s">
-        <v>335</v>
-      </c>
-      <c r="H103" t="s">
-        <v>625</v>
-      </c>
-      <c r="I103" t="s">
-        <v>626</v>
-      </c>
-      <c r="J103" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" t="s">
-        <v>213</v>
-      </c>
-      <c r="F104" t="s">
-        <v>216</v>
-      </c>
-      <c r="G104" t="s">
-        <v>335</v>
-      </c>
-      <c r="H104" t="s">
-        <v>627</v>
-      </c>
-      <c r="I104" t="s">
-        <v>628</v>
-      </c>
-      <c r="J104" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" t="s">
-        <v>144</v>
-      </c>
-      <c r="D105" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" t="s">
-        <v>213</v>
-      </c>
-      <c r="F105" t="s">
-        <v>216</v>
-      </c>
-      <c r="G105" t="s">
-        <v>335</v>
-      </c>
-      <c r="H105" t="s">
-        <v>629</v>
-      </c>
-      <c r="I105" t="s">
-        <v>630</v>
-      </c>
-      <c r="J105" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>323</v>
-      </c>
-      <c r="B106" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" t="s">
-        <v>213</v>
-      </c>
-      <c r="F106" t="s">
-        <v>216</v>
-      </c>
-      <c r="G106" t="s">
-        <v>335</v>
-      </c>
-      <c r="H106" t="s">
-        <v>631</v>
-      </c>
-      <c r="I106" t="s">
-        <v>632</v>
-      </c>
-      <c r="J106" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" t="s">
-        <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>216</v>
-      </c>
-      <c r="G107" t="s">
-        <v>335</v>
-      </c>
-      <c r="H107" t="s">
-        <v>634</v>
-      </c>
-      <c r="I107" t="s">
-        <v>635</v>
-      </c>
-      <c r="J107" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
-      </c>
-      <c r="G108" t="s">
-        <v>335</v>
-      </c>
-      <c r="H108" t="s">
-        <v>637</v>
-      </c>
-      <c r="I108" t="s">
-        <v>638</v>
-      </c>
-      <c r="J108" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
-      </c>
-      <c r="G109" t="s">
-        <v>335</v>
-      </c>
-      <c r="H109" t="s">
-        <v>640</v>
-      </c>
-      <c r="I109" t="s">
-        <v>641</v>
-      </c>
-      <c r="J109" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/1 - A processar/1 - Enderecos_Colaboradores.xlsx
+++ b/1 - A processar/1 - Enderecos_Colaboradores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\1 - A processar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB8846-4487-4A32-B3DF-BEF239803661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E964CA-9659-4DD4-9795-767F35D43A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="487">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -1690,7 +1690,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2034,10 +2048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2146,19 +2160,19 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>216</v>
@@ -2169,19 +2183,19 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>216</v>
@@ -2192,13 +2206,13 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>218</v>
@@ -2215,13 +2229,13 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>218</v>
@@ -2238,13 +2252,13 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>218</v>
@@ -2261,13 +2275,13 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>218</v>
@@ -2284,13 +2298,13 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>218</v>
@@ -2307,13 +2321,13 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>218</v>
@@ -2330,13 +2344,13 @@
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>218</v>
@@ -2353,13 +2367,13 @@
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>218</v>
@@ -2376,19 +2390,19 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>216</v>
@@ -2399,19 +2413,19 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>216</v>
@@ -2422,19 +2436,19 @@
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>216</v>
@@ -2445,19 +2459,19 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>216</v>
@@ -2468,19 +2482,19 @@
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>216</v>
@@ -2491,791 +2505,2079 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="F109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A50:A53">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A105:A109">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3286,7 +4588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D84DA83-8FDC-4C97-BFE2-BF2B9B9B1FAB}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G109"/>
     </sheetView>
   </sheetViews>
@@ -5811,8 +7113,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A105:A109">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5822,7 +7124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71DD28-F18A-41B8-8415-4DF1F3C2C403}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/1 - A processar/1 - Enderecos_Colaboradores.xlsx
+++ b/1 - A processar/1 - Enderecos_Colaboradores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\1 - A processar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E964CA-9659-4DD4-9795-767F35D43A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAAFF1D-E1D2-40F5-AC45-B3809387A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="642">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -1498,6 +1498,471 @@
   </si>
   <si>
     <t>AV. THALES CHAGAS, 1587, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>VANDERLEI SANTANA MENDES - RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARGELIA, 178, PETROVALE, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>PETROVALE, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>WALISSON AFONSO CARNEIRO - RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARTUR RABELO, 235, PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>PARQUE DAS INDUSTRIAS, 00000-000, BETIM, MG</t>
+  </si>
+  <si>
+    <t>ANDERSON DE ARAUJO MELO - R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>R. FERREIRA, 350, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>ANDERSON LUIZ - BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>BECO SÃO PEDRO, 25, CABANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CABANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>DIEGO VINICIUS DA ROCHA CARNEIRO - RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA IGUAÇÚ  385, CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>CONCÓRDIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>FRANCISCO PAULO XAVIER - RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ CECILIO DOS SANTOS, 65, EYMARD, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JACKSON ANTONIO DA SILVA - RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ARISCO , 120, JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JARDIM VITORIA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JOAQUIM DOS SANTOS GOMES - RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA  BARRETOS, 434, JULIANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JULIANA, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG, T1</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130, ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>ETELVINA CARNEIRO, 00000-000, BELO HORIZONTE, MG</t>
+  </si>
+  <si>
+    <t>RAFAEL DINIZ COELHO - RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOSE FRANCISCO CRUZ,  38, FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>FUNCIONÁRIOS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>SERGIO ALVES - RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA CAÇAPAVA, 182, RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>RIACHO DAS PEDRAS, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413, NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>NOVA CONTAGEM, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>WALLACE ADRIANO COSTA - RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIN CAMARGO,  XXX, CENTRO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>WELINTON COSTA - RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIM JOSÉ, 1685, PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>PONTE GRANDE, 00000-000, CONTAGEM, MG</t>
+  </si>
+  <si>
+    <t>DANIEL BRITO ALVES BATISTA - RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA DAS JABUTICABEIRAS, 210, NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
+  </si>
+  <si>
+    <t>NOVO RETIRO, 00000-000, ESMERALDAS, MG</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>ROSENEY PORFIRIO DA SILVA - RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA BOTAFOGO, 249, DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>DURVAL DE BARROS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>VALDEVINO GOMES DA SILVA - RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA CACHOEIRO, 344, JARDIM DAS ROSAS, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA BOLÍVIA,  67, PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>PRIMAVERA, 00000-000, IBIRITÉ, MG</t>
+  </si>
+  <si>
+    <t>JOSCK JUAN SANTOS NASCIMENTO - RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG, T2</t>
+  </si>
+  <si>
+    <t>RUA JOSE MARIA DE MENEZES, 20, BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
+  </si>
+  <si>
+    <t>BOTAFOGO, 00000-000, JUSTINOPOLIS, MG</t>
+  </si>
+  <si>
+    <t>FLAVIO DA SILVA FERNANDES - RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MACHADO VIEIRA 98, CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPEZ - R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>R. JOSÉ C MAIA, 245, MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MOCAMBEIRO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>HUGO LEONARDO SILVA - RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MAGNO CLARET, 587, LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>LAGOA DE SANTO ANTONIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>AVENIDA PERGENTINO SOUZA SANTOS  771, TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TEOTÔNIO BATISTA PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MARCIO RODRIGUES GONCALVES - RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOÃO MIGUEL RIBEIRO, 115, SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>SAGUAREMA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MARCIO VIEIRA MACENA - RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ FERREIRA DINIZ, 187, TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TEOTONIO BATISTA, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MARCOS HENRIQUE DUARTE COSTA - RUA ELIAS MARQUES, 433, TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ELIAS MARQUES, 433, TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TEOTÓNIO BATISTA DE FREITAS, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>RAFAEL WASHINGTON VIEIRA - RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANDRADE, 130, FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>FELIPE CLAUDIO PEDRO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>ROGER LUCAS DE FREITAS SANTOS - RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA LUIS PIRES 33, COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>COHAB, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>TIAGO GOMES - RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA LUCIO CARDOSO TEIXEIRA  277, CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>CONJUNTO AMELIA TORRES TRIANGULO, 00000-000, PEDRO LEOPOLDO, MG</t>
+  </si>
+  <si>
+    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA RICARDINO, 110, SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO DE ROÇAS GRANDES, 00000-000, Sabará, MG</t>
+  </si>
+  <si>
+    <t>FABRICIO AUGUSTO CARDOZO - RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA DOM CABRAL 92, PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
+  </si>
+  <si>
+    <t>PADRE CHIQUINHO, 00000-000, SÁBARA, MG</t>
+  </si>
+  <si>
+    <t>RENATO P. GONÇALVES - RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ALBERT CHARLEY, 1773, PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>PACIÊNCIA, 00000-000, SABARÁ, MG</t>
+  </si>
+  <si>
+    <t>ADRIANO RODRIGUES DA SILVA - R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>R. DO MÉXICO, 421, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>EDVALDO MACIEL JARDIM - RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA GUATEMALA  93, INDUSTRIAL AMERICANO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>FLAVIANO ALVES MUNIZ - TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>TRAVESSA A, BONANZA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>BONANZA, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPES DE ALMEIDA - RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA PARAIBUNA, 82, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>HUDSON DIAS RAMOS - AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>AVENIDA ETELVINO SOUZA LIMA,  2763, PALMITAL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>PALMITAL, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>JOSÉ LUCAS DE JESUS - RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA ENGENHEIRO FELIPE GABRICH,  790, SANTA MATILDE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>KLEBER DE AVILA TORRES - RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA MANOEL ALVES BRAN,  134, BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>BELVEDERE, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>MARCELO GUILHERME - RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG, T4</t>
+  </si>
+  <si>
+    <t>RUA JOÃO JOSÉ PEDRO, 135, CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>CORREGO FRIO, 00000-000, SANTA LUZIA, MG</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60, NAZIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>NAZIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>EDUARDO HENRIQUE DOS SANTOS MORAIS - RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA GERALDO FIRMINO DINIZ, 93, VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>VALE FORMOSO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO COELHO SILVA - RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, 1528, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO PATROCINIO DE JESUS - RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA FIDELIS PROCÓPIO BRAGA, 91, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154, GAVEA 1, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>GAVEA 1, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>FLANKLIN SILVA BARROS - RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA EMÍLIO VASCONCELOS,  219, CENTRO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CENTRO, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>GILBERTO SANTOS DA SILVA - RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA 35, 249, JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JEQUITIBÁ, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>HUGO AUGUSTO DOS SANTOS - RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA PARAÍBA,  544, CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>ITALO MATHEUS B. - RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA SANTO ANTONIO, 260, RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>RIBEIRÃO DA MATA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JASSON FERREIRA CAMPOS - RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA JORGE DIAS DE OLIVA, 870, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JOAO VITOR TAVORA SILVA - RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, 1528, CÉLVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>JOSE RAMON ISERNIA RODRIGUEZ - RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA PAULO FERREIRA DA COSTA, 1013, VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>VISTA ALEGRE, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>LEONARDO BATISTA - R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>R. PERNAMBUCO, 84A, CELVIA, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>LEONARDO ALVES - AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>AV. ADÉLIA ISSA,  1264, CAIEIRAS, 00000-000, VESPASIANO, MG</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO VIEIRA - RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG, T5</t>
+  </si>
+  <si>
+    <t>RUA CEARÁ  1453 CÉLVIA, CÉLVIA, 00000-000, VESPASIANO, MG</t>
   </si>
 </sst>
 </file>
@@ -1690,21 +2155,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -2050,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
@@ -4576,8 +5027,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A105:A109">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7113,8 +7564,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A105:A109">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7122,9 +7573,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71DD28-F18A-41B8-8415-4DF1F3C2C403}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -7268,19 +7719,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
         <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>216</v>
@@ -7289,30 +7740,30 @@
         <v>329</v>
       </c>
       <c r="H5" t="s">
-        <v>355</v>
+        <v>487</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
         <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>216</v>
@@ -7321,24 +7772,24 @@
         <v>329</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>490</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>491</v>
       </c>
       <c r="J6" t="s">
-        <v>360</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>218</v>
@@ -7353,24 +7804,24 @@
         <v>329</v>
       </c>
       <c r="H7" t="s">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>494</v>
       </c>
       <c r="J7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
         <v>218</v>
@@ -7385,24 +7836,24 @@
         <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>364</v>
+        <v>495</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>496</v>
       </c>
       <c r="J8" t="s">
-        <v>354</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>218</v>
@@ -7417,24 +7868,24 @@
         <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>366</v>
+        <v>498</v>
       </c>
       <c r="I9" t="s">
-        <v>367</v>
+        <v>499</v>
       </c>
       <c r="J9" t="s">
-        <v>368</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
@@ -7449,24 +7900,24 @@
         <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>501</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>502</v>
       </c>
       <c r="J10" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
         <v>218</v>
@@ -7481,24 +7932,24 @@
         <v>329</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
       <c r="I11" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="J11" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
         <v>218</v>
@@ -7513,24 +7964,24 @@
         <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="J12" t="s">
-        <v>377</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
@@ -7545,24 +7996,24 @@
         <v>329</v>
       </c>
       <c r="H13" t="s">
-        <v>378</v>
+        <v>509</v>
       </c>
       <c r="I13" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="J13" t="s">
-        <v>380</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>218</v>
@@ -7577,30 +8028,30 @@
         <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="I14" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="J14" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
         <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
         <v>216</v>
@@ -7609,30 +8060,30 @@
         <v>329</v>
       </c>
       <c r="H15" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="I15" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
         <v>216</v>
@@ -7641,30 +8092,30 @@
         <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="I16" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="J16" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
         <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
         <v>216</v>
@@ -7673,30 +8124,30 @@
         <v>329</v>
       </c>
       <c r="H17" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="I17" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="J17" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
         <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
         <v>216</v>
@@ -7705,30 +8156,30 @@
         <v>329</v>
       </c>
       <c r="H18" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="J18" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
         <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F19" t="s">
         <v>216</v>
@@ -7737,1100 +8188,2892 @@
         <v>329</v>
       </c>
       <c r="H19" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="I19" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="J19" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
         <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H20" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="I20" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="J20" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F21" t="s">
         <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="J21" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
         <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F22" t="s">
         <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="I22" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="J22" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
         <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
         <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H23" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="J23" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
         <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H24" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="I24" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="J24" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
         <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
         <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="J25" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
         <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
         <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="I26" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="J26" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
         <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="I27" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="J27" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
         <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
         <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="I28" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="J28" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
         <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="I29" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="J29" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
         <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H30" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="I30" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="J30" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
         <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H31" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="I31" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="J31" t="s">
-        <v>348</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
         <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
         <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H32" t="s">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="I32" t="s">
-        <v>426</v>
+        <v>516</v>
       </c>
       <c r="J32" t="s">
-        <v>427</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
         <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
         <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H33" t="s">
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="I33" t="s">
-        <v>429</v>
+        <v>519</v>
       </c>
       <c r="J33" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
         <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
         <v>216</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H34" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="I34" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="J34" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
         <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>434</v>
+        <v>524</v>
       </c>
       <c r="I35" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="J35" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
         <v>216</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H36" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="I36" t="s">
-        <v>438</v>
+        <v>528</v>
       </c>
       <c r="J36" t="s">
-        <v>431</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
         <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="I37" t="s">
-        <v>440</v>
+        <v>531</v>
       </c>
       <c r="J37" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
         <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
         <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H38" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="I38" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="J38" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
         <v>216</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H39" t="s">
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="I39" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="J39" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
         <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
         <v>216</v>
       </c>
       <c r="G40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H40" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="I40" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="J40" t="s">
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
         <v>216</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H41" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="I41" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="J41" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
         <v>216</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H42" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="I42" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="J42" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
         <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
         <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H43" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="I43" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="J43" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
         <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H44" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="I44" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="J44" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H45" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="I45" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="J45" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
         <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
         <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H46" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="I46" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
         <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H47" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I47" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
         <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
         <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H48" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="I48" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
         <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
         <v>216</v>
       </c>
       <c r="G49" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H49" t="s">
-        <v>473</v>
+        <v>343</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>344</v>
       </c>
       <c r="J49" t="s">
-        <v>475</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>216</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H50" t="s">
-        <v>476</v>
+        <v>346</v>
       </c>
       <c r="I50" t="s">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="J50" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
         <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
         <v>216</v>
       </c>
       <c r="G51" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H51" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="I51" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="J51" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
         <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
         <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H52" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="I52" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" t="s">
+        <v>428</v>
+      </c>
+      <c r="I53" t="s">
+        <v>429</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I54" t="s">
+        <v>545</v>
+      </c>
+      <c r="J54" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>332</v>
+      </c>
+      <c r="H55" t="s">
+        <v>547</v>
+      </c>
+      <c r="I55" t="s">
+        <v>548</v>
+      </c>
+      <c r="J55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" t="s">
+        <v>332</v>
+      </c>
+      <c r="H56" t="s">
+        <v>550</v>
+      </c>
+      <c r="I56" t="s">
+        <v>551</v>
+      </c>
+      <c r="J56" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" t="s">
+        <v>553</v>
+      </c>
+      <c r="I57" t="s">
+        <v>554</v>
+      </c>
+      <c r="J57" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" t="s">
+        <v>332</v>
+      </c>
+      <c r="H58" t="s">
+        <v>556</v>
+      </c>
+      <c r="I58" t="s">
+        <v>557</v>
+      </c>
+      <c r="J58" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="s">
+        <v>332</v>
+      </c>
+      <c r="H59" t="s">
+        <v>559</v>
+      </c>
+      <c r="I59" t="s">
+        <v>560</v>
+      </c>
+      <c r="J59" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" t="s">
+        <v>332</v>
+      </c>
+      <c r="H60" t="s">
+        <v>562</v>
+      </c>
+      <c r="I60" t="s">
+        <v>563</v>
+      </c>
+      <c r="J60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" t="s">
+        <v>565</v>
+      </c>
+      <c r="I61" t="s">
+        <v>566</v>
+      </c>
+      <c r="J61" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" t="s">
+        <v>332</v>
+      </c>
+      <c r="H62" t="s">
+        <v>568</v>
+      </c>
+      <c r="I62" t="s">
+        <v>569</v>
+      </c>
+      <c r="J62" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" t="s">
+        <v>332</v>
+      </c>
+      <c r="H63" t="s">
+        <v>571</v>
+      </c>
+      <c r="I63" t="s">
+        <v>572</v>
+      </c>
+      <c r="J63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" t="s">
+        <v>332</v>
+      </c>
+      <c r="H64" t="s">
+        <v>574</v>
+      </c>
+      <c r="I64" t="s">
+        <v>575</v>
+      </c>
+      <c r="J64" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" t="s">
+        <v>332</v>
+      </c>
+      <c r="H65" t="s">
+        <v>577</v>
+      </c>
+      <c r="I65" t="s">
+        <v>578</v>
+      </c>
+      <c r="J65" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" t="s">
+        <v>580</v>
+      </c>
+      <c r="I66" t="s">
+        <v>581</v>
+      </c>
+      <c r="J66" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" t="s">
+        <v>583</v>
+      </c>
+      <c r="I67" t="s">
+        <v>584</v>
+      </c>
+      <c r="J67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" t="s">
+        <v>332</v>
+      </c>
+      <c r="H68" t="s">
+        <v>432</v>
+      </c>
+      <c r="I68" t="s">
+        <v>433</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" t="s">
+        <v>434</v>
+      </c>
+      <c r="I69" t="s">
+        <v>435</v>
+      </c>
+      <c r="J69" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" t="s">
+        <v>332</v>
+      </c>
+      <c r="H70" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" t="s">
+        <v>438</v>
+      </c>
+      <c r="J70" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" t="s">
+        <v>439</v>
+      </c>
+      <c r="I71" t="s">
+        <v>440</v>
+      </c>
+      <c r="J71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" t="s">
+        <v>585</v>
+      </c>
+      <c r="I72" t="s">
+        <v>586</v>
+      </c>
+      <c r="J72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H73" t="s">
+        <v>587</v>
+      </c>
+      <c r="I73" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" t="s">
+        <v>590</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" t="s">
+        <v>332</v>
+      </c>
+      <c r="H75" t="s">
+        <v>593</v>
+      </c>
+      <c r="I75" t="s">
+        <v>594</v>
+      </c>
+      <c r="J75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" t="s">
+        <v>596</v>
+      </c>
+      <c r="I76" t="s">
+        <v>597</v>
+      </c>
+      <c r="J76" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" t="s">
+        <v>598</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+      <c r="H78" t="s">
+        <v>601</v>
+      </c>
+      <c r="I78" t="s">
+        <v>602</v>
+      </c>
+      <c r="J78" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" t="s">
+        <v>442</v>
+      </c>
+      <c r="I79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" t="s">
+        <v>445</v>
+      </c>
+      <c r="I80" t="s">
+        <v>446</v>
+      </c>
+      <c r="J80" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" t="s">
+        <v>448</v>
+      </c>
+      <c r="I81" t="s">
+        <v>449</v>
+      </c>
+      <c r="J81" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" t="s">
+        <v>332</v>
+      </c>
+      <c r="H82" t="s">
+        <v>451</v>
+      </c>
+      <c r="I82" t="s">
+        <v>452</v>
+      </c>
+      <c r="J82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" t="s">
+        <v>454</v>
+      </c>
+      <c r="I83" t="s">
+        <v>455</v>
+      </c>
+      <c r="J83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>332</v>
+      </c>
+      <c r="H84" t="s">
+        <v>457</v>
+      </c>
+      <c r="I84" t="s">
+        <v>458</v>
+      </c>
+      <c r="J84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" t="s">
+        <v>332</v>
+      </c>
+      <c r="H85" t="s">
+        <v>459</v>
+      </c>
+      <c r="I85" t="s">
+        <v>460</v>
+      </c>
+      <c r="J85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" t="s">
+        <v>332</v>
+      </c>
+      <c r="H86" t="s">
+        <v>462</v>
+      </c>
+      <c r="I86" t="s">
+        <v>463</v>
+      </c>
+      <c r="J86" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>216</v>
+      </c>
+      <c r="G87" t="s">
+        <v>332</v>
+      </c>
+      <c r="H87" t="s">
+        <v>465</v>
+      </c>
+      <c r="I87" t="s">
+        <v>466</v>
+      </c>
+      <c r="J87" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" t="s">
+        <v>332</v>
+      </c>
+      <c r="H88" t="s">
+        <v>468</v>
+      </c>
+      <c r="I88" t="s">
+        <v>469</v>
+      </c>
+      <c r="J88" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G89" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" t="s">
+        <v>470</v>
+      </c>
+      <c r="I89" t="s">
+        <v>471</v>
+      </c>
+      <c r="J89" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" t="s">
+        <v>335</v>
+      </c>
+      <c r="H90" t="s">
+        <v>473</v>
+      </c>
+      <c r="I90" t="s">
+        <v>474</v>
+      </c>
+      <c r="J90" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" t="s">
+        <v>604</v>
+      </c>
+      <c r="I91" t="s">
+        <v>605</v>
+      </c>
+      <c r="J91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" t="s">
+        <v>335</v>
+      </c>
+      <c r="H92" t="s">
+        <v>607</v>
+      </c>
+      <c r="I92" t="s">
+        <v>608</v>
+      </c>
+      <c r="J92" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G93" t="s">
+        <v>335</v>
+      </c>
+      <c r="H93" t="s">
+        <v>610</v>
+      </c>
+      <c r="I93" t="s">
+        <v>611</v>
+      </c>
+      <c r="J93" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" t="s">
+        <v>612</v>
+      </c>
+      <c r="I94" t="s">
+        <v>613</v>
+      </c>
+      <c r="J94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>216</v>
+      </c>
+      <c r="G95" t="s">
+        <v>335</v>
+      </c>
+      <c r="H95" t="s">
+        <v>614</v>
+      </c>
+      <c r="I95" t="s">
+        <v>615</v>
+      </c>
+      <c r="J95" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" t="s">
+        <v>335</v>
+      </c>
+      <c r="H96" t="s">
+        <v>617</v>
+      </c>
+      <c r="I96" t="s">
+        <v>618</v>
+      </c>
+      <c r="J96" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" t="s">
+        <v>620</v>
+      </c>
+      <c r="I97" t="s">
+        <v>621</v>
+      </c>
+      <c r="J97" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" t="s">
+        <v>335</v>
+      </c>
+      <c r="H98" t="s">
+        <v>623</v>
+      </c>
+      <c r="I98" t="s">
+        <v>624</v>
+      </c>
+      <c r="J98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>216</v>
+      </c>
+      <c r="G99" t="s">
+        <v>335</v>
+      </c>
+      <c r="H99" t="s">
+        <v>626</v>
+      </c>
+      <c r="I99" t="s">
+        <v>627</v>
+      </c>
+      <c r="J99" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" t="s">
+        <v>335</v>
+      </c>
+      <c r="H100" t="s">
+        <v>629</v>
+      </c>
+      <c r="I100" t="s">
+        <v>630</v>
+      </c>
+      <c r="J100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" t="s">
+        <v>335</v>
+      </c>
+      <c r="H101" t="s">
+        <v>631</v>
+      </c>
+      <c r="I101" t="s">
+        <v>632</v>
+      </c>
+      <c r="J101" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" t="s">
+        <v>216</v>
+      </c>
+      <c r="G102" t="s">
+        <v>335</v>
+      </c>
+      <c r="H102" t="s">
+        <v>633</v>
+      </c>
+      <c r="I102" t="s">
+        <v>634</v>
+      </c>
+      <c r="J102" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103" t="s">
+        <v>335</v>
+      </c>
+      <c r="H103" t="s">
+        <v>636</v>
+      </c>
+      <c r="I103" t="s">
+        <v>637</v>
+      </c>
+      <c r="J103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>216</v>
+      </c>
+      <c r="G104" t="s">
+        <v>335</v>
+      </c>
+      <c r="H104" t="s">
+        <v>638</v>
+      </c>
+      <c r="I104" t="s">
+        <v>639</v>
+      </c>
+      <c r="J104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" t="s">
+        <v>335</v>
+      </c>
+      <c r="H105" t="s">
+        <v>640</v>
+      </c>
+      <c r="I105" t="s">
+        <v>641</v>
+      </c>
+      <c r="J105" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" t="s">
+        <v>335</v>
+      </c>
+      <c r="H106" t="s">
+        <v>476</v>
+      </c>
+      <c r="I106" t="s">
+        <v>477</v>
+      </c>
+      <c r="J106" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>335</v>
+      </c>
+      <c r="H107" t="s">
+        <v>479</v>
+      </c>
+      <c r="I107" t="s">
+        <v>480</v>
+      </c>
+      <c r="J107" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" t="s">
+        <v>213</v>
+      </c>
+      <c r="F108" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" t="s">
+        <v>335</v>
+      </c>
+      <c r="H108" t="s">
+        <v>482</v>
+      </c>
+      <c r="I108" t="s">
+        <v>483</v>
+      </c>
+      <c r="J108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>326</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B109" t="s">
         <v>36</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D53" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" t="s">
         <v>213</v>
       </c>
-      <c r="F53" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F109" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" t="s">
         <v>335</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H109" t="s">
         <v>485</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I109" t="s">
         <v>486</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J109" t="s">
         <v>349</v>
       </c>
     </row>
